--- a/v3/example/KV2.xlsx
+++ b/v3/example/KV2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <t>字段名</t>
   </si>
@@ -28,10 +28,7 @@
     <t>值</t>
   </si>
   <si>
-    <t>数组</t>
-  </si>
-  <si>
-    <t>切割符</t>
+    <t>数组切割</t>
   </si>
   <si>
     <t>GroupID</t>
@@ -44,9 +41,6 @@
   </si>
   <si>
     <t>1;2;3</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>;</t>
@@ -83,81 +77,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -166,46 +85,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,12 +102,124 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -242,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,17 +445,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -477,11 +476,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,39 +542,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -556,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -568,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,21 +1024,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,109 +1053,93 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="2" ht="16.5" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:6">
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
     </row>
-    <row r="5" ht="16.5" spans="1:6">
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
     </row>
-    <row r="6" ht="16.5" spans="1:6">
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:6">
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="16.5" spans="1:6">
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:6">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
     </row>
-    <row r="10" ht="16.5" spans="1:6">
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/v3/example/KV2.xlsx
+++ b/v3/example/KV2.xlsx
@@ -40,7 +40,7 @@
     <t>分组</t>
   </si>
   <si>
-    <t>1;2;3</t>
+    <t>10;20</t>
   </si>
   <si>
     <t>;</t>
@@ -53,8 +53,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -77,6 +77,81 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -85,9 +160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,12 +178,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -116,99 +192,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,25 +236,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,157 +416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,53 +447,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +470,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -528,17 +499,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,10 +550,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -562,133 +562,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
